--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1699.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1699.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4670878547948459</v>
+        <v>0.5655645728111267</v>
       </c>
       <c r="B1">
-        <v>0.7632915770996502</v>
+        <v>2.045938014984131</v>
       </c>
       <c r="C1">
-        <v>3.893293504831358</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.260063907773907</v>
+        <v>1.275944590568542</v>
       </c>
       <c r="E1">
-        <v>1.683934266061961</v>
+        <v>1.313208937644958</v>
       </c>
     </row>
   </sheetData>
